--- a/static/excel/tables.xlsx
+++ b/static/excel/tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="AgeOfEmpiresIIUnits" sheetId="1" r:id="rId1"/>
+    <sheet name="BistroDutyRoster" sheetId="1" r:id="rId1"/>
     <sheet name="TopBoxOffice" sheetId="2" r:id="rId2"/>
-    <sheet name="AeroEngineSpecs" sheetId="3" r:id="rId3"/>
+    <sheet name="ChinaConceptFirms" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -399,79 +399,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>buildTime</v>
+        <v>served</v>
       </c>
       <c r="B1" t="str">
-        <v>cost</v>
+        <v>adt</v>
       </c>
       <c r="C1" t="str">
-        <v>moveRate</v>
+        <v>sold</v>
       </c>
       <c r="D1" t="str">
-        <v>armor</v>
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>day</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="str">
-        <v>0/1</v>
+        <v>Joyce</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="str">
-        <v>0/6</v>
+        <v>Lance</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>46</v>
+        <v>78</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="str">
-        <v>0/8</v>
+        <v>Naomi</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>30</v>
+        <v>85</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
       </c>
       <c r="C5">
-        <v>1.35</v>
+        <v>12</v>
       </c>
       <c r="D5" t="str">
-        <v>2/2</v>
+        <v>Lance</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -481,223 +508,173 @@
         <v>based_on</v>
       </c>
       <c r="B1" t="str">
-        <v>year</v>
+        <v>director</v>
       </c>
       <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>budget</v>
-      </c>
-      <c r="E1" t="str">
-        <v>boxoffice</v>
+        <v>writer</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Gary Scott Thompson</v>
+        <f>Jack Kirby</f>
+        <v>Stan Lee</v>
       </c>
       <c r="B2" t="str">
-        <v>2015</v>
+        <v>Ryan Coogler</v>
       </c>
       <c r="C2" t="str">
-        <v>Furious 7</v>
-      </c>
-      <c r="D2">
-        <v>190</v>
-      </c>
-      <c r="E2" t="str">
-        <v>1,516</v>
+        <f>Joe Robert Cole</f>
+        <v>Ryan Coogler</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Gary Scott Thompson</v>
       </c>
       <c r="B3" t="str">
-        <v>2018</v>
+        <v>F. Gary Gray</v>
       </c>
       <c r="C3" t="str">
-        <v>Incredibles 2</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1,242</v>
+        <v>Chris Morgan</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Michael Crichton</v>
+        <f>Don Heck</f>
+        <v>Stan Lee</v>
       </c>
       <c r="B4" t="str">
-        <v>2018</v>
+        <v>Shane Black</v>
       </c>
       <c r="C4" t="str">
-        <v>Jurassic World: Fallen Kingdom</v>
-      </c>
-      <c r="D4">
-        <v>187</v>
-      </c>
-      <c r="E4" t="str">
-        <v>1,309</v>
+        <f>Shane Black</f>
+        <v>Drew Pearce</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Disney's</v>
+        <v>J. K. Rowling</v>
       </c>
       <c r="B5" t="str">
-        <v>2017</v>
+        <v>David Yates</v>
       </c>
       <c r="C5" t="str">
-        <v>Beauty and the Beast</v>
-      </c>
-      <c r="D5">
-        <v>255</v>
-      </c>
-      <c r="E5" t="str">
-        <v>1,263</v>
+        <v>Steve Kloves</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Michael Crichton</v>
       </c>
       <c r="B6" t="str">
-        <v>2009</v>
+        <v>Colin Trevorrow</v>
       </c>
       <c r="C6" t="str">
-        <v>Avatar</v>
-      </c>
-      <c r="D6">
-        <v>244</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2,788</v>
+        <f>Amanda Silver</f>
+        <v>Rick Jaffa</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>sku</v>
+        <v>industry</v>
       </c>
       <c r="B1" t="str">
-        <v>bypass</v>
+        <v>symbol</v>
       </c>
       <c r="C1" t="str">
-        <v>app</v>
+        <v>companyName</v>
       </c>
       <c r="D1" t="str">
-        <v>maxtwa</v>
-      </c>
-      <c r="E1" t="str">
-        <v>d</v>
-      </c>
-      <c r="F1" t="str">
-        <v>maxt</v>
+        <v>sector</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GEnx-1B64</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
+        <v>Online Media</v>
+      </c>
+      <c r="B2" t="str">
+        <v>BIDU</v>
       </c>
       <c r="C2" t="str">
-        <f>Boeing 787</f>
-        <v>Boeing 747-8</v>
-      </c>
-      <c r="D2">
-        <v>330</v>
-      </c>
-      <c r="E2">
-        <v>282</v>
-      </c>
-      <c r="F2">
-        <v>284</v>
+        <v>Baidu Inc.</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Technology</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Trent 1000</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+        <v>Electronic Gaming &amp; Multimedia</v>
+      </c>
+      <c r="B3" t="str">
+        <v>BILI</v>
       </c>
       <c r="C3" t="str">
-        <v>Boeing 787</v>
-      </c>
-      <c r="D3">
-        <v>350</v>
-      </c>
-      <c r="E3">
-        <v>285</v>
-      </c>
-      <c r="F3">
-        <v>240</v>
+        <v>Bilibili Inc.</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Communication Services</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>F100-PW-229</v>
-      </c>
-      <c r="B4">
-        <v>0.36</v>
+        <v>Internet Retail</v>
+      </c>
+      <c r="B4" t="str">
+        <v>PDD</v>
       </c>
       <c r="C4" t="str">
-        <f>F-15E</f>
-        <v>F-16E+</v>
-      </c>
-      <c r="D4">
-        <v>130</v>
-      </c>
-      <c r="E4">
-        <v>118</v>
-      </c>
-      <c r="F4">
-        <v>79</v>
+        <v>Pinduoduo Inc.</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Consumer Cyclical</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>WS-10</v>
-      </c>
-      <c r="B5">
-        <v>0.78</v>
+        <v>Online Media</v>
+      </c>
+      <c r="B5" t="str">
+        <v>NTES</v>
       </c>
       <c r="C5" t="str">
-        <f>J11B</f>
-        <v>J6B</v>
-      </c>
-      <c r="D5">
-        <v>155</v>
-      </c>
-      <c r="E5">
-        <v>102</v>
-      </c>
-      <c r="F5">
-        <v>79</v>
+        <v>NetEase Inc.</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Technology</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Online Media</v>
+      </c>
+      <c r="B6" t="str">
+        <v>JD</v>
+      </c>
+      <c r="C6" t="str">
+        <v>JD.com Inc.</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Technology</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>